--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s3_P3_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s3_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1181.894887231456</v>
+        <v>2074.615653474775</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.005000114440917969</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.42003702099418</v>
+        <v>23.65265368177027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.85685469239504</v>
+        <v>15.72005340145628</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.041704902850064</v>
+        <v>6.683053194461346</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.9400000000071</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>215.35</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -912,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.10555953090583</v>
+        <v>2.469817807045693</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>5.575377337951519</v>
       </c>
     </row>
     <row r="5">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>12.35722294236247</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.57537733795152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1056,7 +1001,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>6</v>
@@ -1070,7 +1015,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
@@ -1084,7 +1029,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
@@ -1098,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
@@ -1112,7 +1057,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
@@ -1126,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1140,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1154,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1168,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1182,10 +1127,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1196,10 +1141,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1210,10 +1155,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -1224,10 +1169,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -1238,10 +1183,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
@@ -1252,10 +1197,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
@@ -1363,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>144.23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -1374,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>149.405</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -1385,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>147.52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -1396,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>150.875</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -1407,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>146.14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -1418,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>78.50999999999979</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -1429,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>89.96499999999978</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -1440,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>78.14499999999978</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -1451,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>86.69499999999978</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -1462,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>82.95499999999977</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -1473,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>146.3600000000009</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18">
@@ -1484,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>139.4300000000009</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19">
@@ -1495,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>146.0200000000009</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20">
@@ -1506,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>150.7</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
@@ -1517,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>150.2900000000008</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22">
@@ -1528,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>100.760000000001</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
@@ -1539,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>100.705000000001</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24">
@@ -1550,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>103.625000000001</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25">
@@ -1561,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>112.525000000001</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26">
@@ -1572,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.025000000001</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27">
@@ -1583,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>39.07000000000073</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28">
@@ -1594,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>38.04000000000073</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29">
@@ -1605,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.33500000000073</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
@@ -1616,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>47.82500000000073</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31">
@@ -1627,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>47.45</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
@@ -1638,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>144.23</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33">
@@ -1649,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>149.405</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34">
@@ -1660,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>147.52</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35">
@@ -1671,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>150.875</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
@@ -1682,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>146.14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37">
@@ -1693,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>146.3600000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1704,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>139.4300000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1715,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>146.0200000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1726,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>150.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1737,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>150.2900000000008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>44.22999999999999</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
@@ -1795,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>49.405</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
@@ -1806,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>47.52000000000001</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5">
@@ -1817,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>50.875</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
@@ -1828,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>46.14000000000001</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7">
@@ -1839,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>46.36000000000087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1850,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>39.43000000000089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1861,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>46.02000000000086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1872,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>50.69999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1883,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>50.29000000000084</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -1941,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1952,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -1963,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1974,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1985,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -1996,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -2007,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -2018,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -2029,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -2095,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5.63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2106,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>13.54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2117,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2128,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2139,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.01</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2150,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.905</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2161,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.405</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2172,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2183,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.495</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2194,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2235,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2246,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2257,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2268,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2279,7 +2224,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2290,7 +2235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2301,7 +2246,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2312,7 +2257,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2323,7 +2268,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2334,7 +2279,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2345,7 +2290,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2356,7 +2301,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2367,7 +2312,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2378,7 +2323,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2389,7 +2334,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
